--- a/DotNow/Radar Displacement Detector [DotNow] (draft)/Current/BumbleBee Sampling Parameters.xlsx
+++ b/DotNow/Radar Displacement Detector [DotNow] (draft)/Current/BumbleBee Sampling Parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Samraksh Git\AppNotes\DotNow\Radar Displacement Detector [DotNow] (draft)\Current\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -49,7 +49,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -91,7 +91,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -390,7 +390,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="2">
-        <v>3999.9999999999995</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -407,7 +407,7 @@
       </c>
       <c r="B3" s="1">
         <f>1000000/SamplingIntervalMs</f>
-        <v>250.00000000000003</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -416,7 +416,7 @@
       </c>
       <c r="B4" s="2">
         <f>(BufferSize/SamplesPerSecond)*1000</f>
-        <v>1999.9999999999998</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
